--- a/Code/Results/Cases/Case_1_192/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_192/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8111401421637083</v>
+        <v>0.9382768418033152</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1239720973117144</v>
+        <v>0.2880518284147087</v>
       </c>
       <c r="E2">
-        <v>0.1100245071541535</v>
+        <v>0.2902668810817408</v>
       </c>
       <c r="F2">
-        <v>0.6286707113453787</v>
+        <v>1.388164280684521</v>
       </c>
       <c r="G2">
-        <v>0.3652808903740663</v>
+        <v>0.7071974663573073</v>
       </c>
       <c r="H2">
-        <v>0.3218109568943888</v>
+        <v>0.8170119550315604</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1536632901898307</v>
+        <v>0.3668811358229429</v>
       </c>
       <c r="K2">
-        <v>1.002983879980889</v>
+        <v>0.2999057109038006</v>
       </c>
       <c r="L2">
-        <v>0.16518221038978</v>
+        <v>0.1003660647137181</v>
       </c>
       <c r="M2">
-        <v>0.1934631142018119</v>
+        <v>0.184025117717038</v>
       </c>
       <c r="N2">
-        <v>1.083813963682186</v>
+        <v>2.203333507021448</v>
       </c>
       <c r="O2">
-        <v>1.395793141570479</v>
+        <v>3.049501000674852</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7256427807884052</v>
+        <v>0.9183344216710339</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1200747010296013</v>
+        <v>0.2883577262634134</v>
       </c>
       <c r="E3">
-        <v>0.1121338605202471</v>
+        <v>0.2920020035920867</v>
       </c>
       <c r="F3">
-        <v>0.6178817297609598</v>
+        <v>1.393829304094737</v>
       </c>
       <c r="G3">
-        <v>0.3556152888013671</v>
+        <v>0.7096868015382043</v>
       </c>
       <c r="H3">
-        <v>0.322237450244792</v>
+        <v>0.8214687406957211</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1574065608235129</v>
+        <v>0.3690011855887791</v>
       </c>
       <c r="K3">
-        <v>0.8828529695303473</v>
+        <v>0.2617728835010666</v>
       </c>
       <c r="L3">
-        <v>0.1438604408639677</v>
+        <v>0.09433819518725528</v>
       </c>
       <c r="M3">
-        <v>0.1708240172395534</v>
+        <v>0.1782648911901781</v>
       </c>
       <c r="N3">
-        <v>1.124650216787186</v>
+        <v>2.221786505628002</v>
       </c>
       <c r="O3">
-        <v>1.375878584162137</v>
+        <v>3.06387270415901</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6735837607290023</v>
+        <v>0.9064452437343391</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1177927579439597</v>
+        <v>0.2886354763731305</v>
       </c>
       <c r="E4">
-        <v>0.1135254515523849</v>
+        <v>0.2931393397314928</v>
       </c>
       <c r="F4">
-        <v>0.6121810078773038</v>
+        <v>1.397892419163554</v>
       </c>
       <c r="G4">
-        <v>0.3503329795806422</v>
+        <v>0.7115803254525304</v>
       </c>
       <c r="H4">
-        <v>0.3229195107560514</v>
+        <v>0.8244880251704245</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1598067736709092</v>
+        <v>0.3703752095841009</v>
       </c>
       <c r="K4">
-        <v>0.8089456015285776</v>
+        <v>0.2382644365759035</v>
       </c>
       <c r="L4">
-        <v>0.1307826866919086</v>
+        <v>0.09065825284367435</v>
       </c>
       <c r="M4">
-        <v>0.1569941010377853</v>
+        <v>0.1747907978346994</v>
       </c>
       <c r="N4">
-        <v>1.150809897103764</v>
+        <v>2.233722632803273</v>
       </c>
       <c r="O4">
-        <v>1.365905188943302</v>
+        <v>3.074054522412411</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6524721469935457</v>
+        <v>0.9016903370035436</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1168901676987488</v>
+        <v>0.2887713496621984</v>
       </c>
       <c r="E5">
-        <v>0.1141165398267541</v>
+        <v>0.293620944593151</v>
       </c>
       <c r="F5">
-        <v>0.6100826686496887</v>
+        <v>1.399695435710356</v>
       </c>
       <c r="G5">
-        <v>0.3483379155305997</v>
+        <v>0.7124438247671989</v>
       </c>
       <c r="H5">
-        <v>0.3233002804840126</v>
+        <v>0.8257896299298366</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1608103601002793</v>
+        <v>0.3709533510075402</v>
       </c>
       <c r="K5">
-        <v>0.7787853517104963</v>
+        <v>0.2286613611972967</v>
       </c>
       <c r="L5">
-        <v>0.1254557484893652</v>
+        <v>0.08916410700009436</v>
       </c>
       <c r="M5">
-        <v>0.151374464835655</v>
+        <v>0.1733909976274788</v>
       </c>
       <c r="N5">
-        <v>1.161738685816392</v>
+        <v>2.238739178633702</v>
       </c>
       <c r="O5">
-        <v>1.362387990016799</v>
+        <v>3.078545441582889</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6489725949297167</v>
+        <v>0.9009062442939069</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1167419259441189</v>
+        <v>0.2887952838091081</v>
       </c>
       <c r="E6">
-        <v>0.1142161322709283</v>
+        <v>0.293702010826749</v>
       </c>
       <c r="F6">
-        <v>0.609747600785937</v>
+        <v>1.400003726079589</v>
       </c>
       <c r="G6">
-        <v>0.3480159644435332</v>
+        <v>0.7125927592778893</v>
       </c>
       <c r="H6">
-        <v>0.3233696366524796</v>
+        <v>0.8260100652512463</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1609785401996064</v>
+        <v>0.371050452117262</v>
       </c>
       <c r="K6">
-        <v>0.7737745482647824</v>
+        <v>0.2270653956146305</v>
       </c>
       <c r="L6">
-        <v>0.1245713243804687</v>
+        <v>0.08891633888100614</v>
       </c>
       <c r="M6">
-        <v>0.1504422602229099</v>
+        <v>0.1731595279408182</v>
       </c>
       <c r="N6">
-        <v>1.163569489185562</v>
+        <v>2.239581384924263</v>
       </c>
       <c r="O6">
-        <v>1.361836437997837</v>
+        <v>3.079311807129088</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6732986346073062</v>
+        <v>0.9063807520431908</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1177804754673275</v>
+        <v>0.2886372168452667</v>
       </c>
       <c r="E7">
-        <v>0.1135333263057108</v>
+        <v>0.2931457613634532</v>
       </c>
       <c r="F7">
-        <v>0.612151808668763</v>
+        <v>1.397916138716198</v>
       </c>
       <c r="G7">
-        <v>0.350305444098062</v>
+        <v>0.7115915988162769</v>
       </c>
       <c r="H7">
-        <v>0.3229242332779734</v>
+        <v>0.8245052905478616</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1598202053823981</v>
+        <v>0.370382932802807</v>
       </c>
       <c r="K7">
-        <v>0.8085390286339589</v>
+        <v>0.2381350192138001</v>
       </c>
       <c r="L7">
-        <v>0.130710837678734</v>
+        <v>0.09063807998688844</v>
       </c>
       <c r="M7">
-        <v>0.1569182492336871</v>
+        <v>0.1747718549737591</v>
       </c>
       <c r="N7">
-        <v>1.150956205324013</v>
+        <v>2.233789670165033</v>
       </c>
       <c r="O7">
-        <v>1.365855565397482</v>
+        <v>3.074113704295669</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7815657046465958</v>
+        <v>0.9313272677287898</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1226048456486382</v>
+        <v>0.2881386820047069</v>
       </c>
       <c r="E8">
-        <v>0.1107316454670118</v>
+        <v>0.2908502364572376</v>
       </c>
       <c r="F8">
-        <v>0.6247543125215032</v>
+        <v>1.38999634255449</v>
       </c>
       <c r="G8">
-        <v>0.3618087653153381</v>
+        <v>0.7079800645095204</v>
       </c>
       <c r="H8">
-        <v>0.3218690566695912</v>
+        <v>0.8184900249849818</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1549327590364533</v>
+        <v>0.3675971426002071</v>
       </c>
       <c r="K8">
-        <v>0.961589670239789</v>
+        <v>0.2867775414305527</v>
       </c>
       <c r="L8">
-        <v>0.1578268667518259</v>
+        <v>0.09828333323706318</v>
       </c>
       <c r="M8">
-        <v>0.1856415224475931</v>
+        <v>0.1820260656634751</v>
       </c>
       <c r="N8">
-        <v>1.097666081696282</v>
+        <v>2.209570415061679</v>
       </c>
       <c r="O8">
-        <v>1.388446559894859</v>
+        <v>3.054174834522982</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.997681856255042</v>
+        <v>0.9830441677540875</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1329760121964298</v>
+        <v>0.2878714673695129</v>
       </c>
       <c r="E9">
-        <v>0.1060141706027427</v>
+        <v>0.286918128859412</v>
       </c>
       <c r="F9">
-        <v>0.6571538140234523</v>
+        <v>1.379096532542206</v>
       </c>
       <c r="G9">
-        <v>0.3898524357349515</v>
+        <v>0.7037917077456655</v>
       </c>
       <c r="H9">
-        <v>0.3232679871573367</v>
+        <v>0.8089333143417008</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1461620617375501</v>
+        <v>0.3627063503878132</v>
       </c>
       <c r="K9">
-        <v>1.260839726021572</v>
+        <v>0.3813903323691079</v>
       </c>
       <c r="L9">
-        <v>0.2111687490106107</v>
+        <v>0.1134388159173767</v>
       </c>
       <c r="M9">
-        <v>0.242605629275765</v>
+        <v>0.1967432494923216</v>
       </c>
       <c r="N9">
-        <v>1.001994186786435</v>
+        <v>2.166878368905767</v>
       </c>
       <c r="O9">
-        <v>1.45157036543884</v>
+        <v>3.025830818870418</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.159292473188913</v>
+        <v>1.022717661979357</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1411940487468826</v>
+        <v>0.2881042701605523</v>
       </c>
       <c r="E10">
-        <v>0.1030379445443792</v>
+        <v>0.2843741329573</v>
       </c>
       <c r="F10">
-        <v>0.686163796798553</v>
+        <v>1.373900453504838</v>
       </c>
       <c r="G10">
-        <v>0.4142518917869182</v>
+        <v>0.7024758014361083</v>
       </c>
       <c r="H10">
-        <v>0.3266058388583275</v>
+        <v>0.8032709634490658</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1402218932079791</v>
+        <v>0.3594596316056973</v>
       </c>
       <c r="K10">
-        <v>1.480595739548477</v>
+        <v>0.4504048362346964</v>
       </c>
       <c r="L10">
-        <v>0.2505489231526496</v>
+        <v>0.1246674204987386</v>
       </c>
       <c r="M10">
-        <v>0.2849638166190118</v>
+        <v>0.2078490415045238</v>
       </c>
       <c r="N10">
-        <v>0.9373906107752603</v>
+        <v>2.138431008038065</v>
       </c>
       <c r="O10">
-        <v>1.510790468671132</v>
+        <v>3.011545084509663</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.233547971871673</v>
+        <v>1.041124671189124</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1450726058317784</v>
+        <v>0.2883025353600743</v>
       </c>
       <c r="E11">
-        <v>0.1017940425246913</v>
+        <v>0.2832912326013588</v>
       </c>
       <c r="F11">
-        <v>0.7006130143420464</v>
+        <v>1.372144940777034</v>
       </c>
       <c r="G11">
-        <v>0.4262815504105362</v>
+        <v>0.702259046950374</v>
       </c>
       <c r="H11">
-        <v>0.3286717350142112</v>
+        <v>0.8009888254154163</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1376306761824706</v>
+        <v>0.3580573862560721</v>
       </c>
       <c r="K11">
-        <v>1.580650169464178</v>
+        <v>0.4816883458271377</v>
       </c>
       <c r="L11">
-        <v>0.2685261740061691</v>
+        <v>0.1297948642102398</v>
       </c>
       <c r="M11">
-        <v>0.3043715087710552</v>
+        <v>0.2129636476406134</v>
       </c>
       <c r="N11">
-        <v>0.9093060562342679</v>
+        <v>2.126121408746638</v>
       </c>
       <c r="O11">
-        <v>1.54083974571239</v>
+        <v>3.006462156155266</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.261782967454508</v>
+        <v>1.048146023231595</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1465623220813939</v>
+        <v>0.2883908223183838</v>
       </c>
       <c r="E12">
-        <v>0.1013391551552409</v>
+        <v>0.2828918259045707</v>
       </c>
       <c r="F12">
-        <v>0.7062752915376436</v>
+        <v>1.371567430200194</v>
       </c>
       <c r="G12">
-        <v>0.4309799057225803</v>
+        <v>0.7022318176951927</v>
       </c>
       <c r="H12">
-        <v>0.3295368074566341</v>
+        <v>0.8001667675072071</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1366655739447675</v>
+        <v>0.3575370998461573</v>
       </c>
       <c r="K12">
-        <v>1.618559405321122</v>
+        <v>0.4935179932744234</v>
       </c>
       <c r="L12">
-        <v>0.2753445326768542</v>
+        <v>0.1317391772657714</v>
       </c>
       <c r="M12">
-        <v>0.3117430187406853</v>
+        <v>0.2149092671601309</v>
       </c>
       <c r="N12">
-        <v>0.8988650146211725</v>
+        <v>2.121550743626965</v>
       </c>
       <c r="O12">
-        <v>1.552693940354288</v>
+        <v>3.004740621529322</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.25569673029338</v>
+        <v>1.046631590875847</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1462405376225249</v>
+        <v>0.2883712218699941</v>
       </c>
       <c r="E13">
-        <v>0.1014363994815923</v>
+        <v>0.2829773714839394</v>
       </c>
       <c r="F13">
-        <v>0.7050471638781488</v>
+        <v>1.371687929467754</v>
       </c>
       <c r="G13">
-        <v>0.4299615190351602</v>
+        <v>0.7022352434489392</v>
       </c>
       <c r="H13">
-        <v>0.3293467509811592</v>
+        <v>0.8003419397799405</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1368727054953647</v>
+        <v>0.3576486768048701</v>
       </c>
       <c r="K13">
-        <v>1.61039390843132</v>
+        <v>0.4909710226470736</v>
       </c>
       <c r="L13">
-        <v>0.2738755700483182</v>
+        <v>0.1313203185552396</v>
       </c>
       <c r="M13">
-        <v>0.3101544051782028</v>
+        <v>0.2144898530842312</v>
       </c>
       <c r="N13">
-        <v>0.901104946272838</v>
+        <v>2.122531084579858</v>
       </c>
       <c r="O13">
-        <v>1.550119330042662</v>
+        <v>3.005102349862</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.235868497199419</v>
+        <v>1.041701303341654</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1451947400311155</v>
+        <v>0.2883095344882278</v>
       </c>
       <c r="E14">
-        <v>0.1017562930057672</v>
+        <v>0.2832581596234345</v>
       </c>
       <c r="F14">
-        <v>0.7010749692487082</v>
+        <v>1.372095680856361</v>
       </c>
       <c r="G14">
-        <v>0.4266651665920733</v>
+        <v>0.702255707832137</v>
       </c>
       <c r="H14">
-        <v>0.3287412224136972</v>
+        <v>0.800920350243814</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1375509522370053</v>
+        <v>0.3580143674299774</v>
       </c>
       <c r="K14">
-        <v>1.583768518235445</v>
+        <v>0.4826619175224209</v>
       </c>
       <c r="L14">
-        <v>0.2690868985832964</v>
+        <v>0.1299547714901763</v>
       </c>
       <c r="M14">
-        <v>0.3049775080372044</v>
+        <v>0.2131235389073964</v>
       </c>
       <c r="N14">
-        <v>0.9084431397592532</v>
+        <v>2.125743559685816</v>
       </c>
       <c r="O14">
-        <v>1.541805307792544</v>
+        <v>3.006316452663128</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.223738549567997</v>
+        <v>1.038687984356045</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.144556918103028</v>
+        <v>0.2882734671127736</v>
       </c>
       <c r="E15">
-        <v>0.1019543505639398</v>
+        <v>0.283431538337501</v>
       </c>
       <c r="F15">
-        <v>0.6986670404672708</v>
+        <v>1.372356798887445</v>
       </c>
       <c r="G15">
-        <v>0.4246649590869538</v>
+        <v>0.7022753842896208</v>
       </c>
       <c r="H15">
-        <v>0.3283812205435908</v>
+        <v>0.8012801281955717</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1379685045618952</v>
+        <v>0.358239757857381</v>
       </c>
       <c r="K15">
-        <v>1.567462664883266</v>
+        <v>0.4775701500542482</v>
       </c>
       <c r="L15">
-        <v>0.2661551533455082</v>
+        <v>0.1291186768622339</v>
       </c>
       <c r="M15">
-        <v>0.3018094754370395</v>
+        <v>0.2122877770347742</v>
       </c>
       <c r="N15">
-        <v>0.912963453473143</v>
+        <v>2.127723105226856</v>
       </c>
       <c r="O15">
-        <v>1.536775471224843</v>
+        <v>3.007086586652576</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.154455387567964</v>
+        <v>1.021521895431192</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1409434665724874</v>
+        <v>0.2880931653553134</v>
       </c>
       <c r="E16">
-        <v>0.1031214781042689</v>
+        <v>0.2844463970239666</v>
       </c>
       <c r="F16">
-        <v>0.6852455990572963</v>
+        <v>1.374027402390723</v>
       </c>
       <c r="G16">
-        <v>0.4134852199090062</v>
+        <v>0.7024976457155674</v>
       </c>
       <c r="H16">
-        <v>0.3264821841125922</v>
+        <v>0.8034260083151139</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1403934835858416</v>
+        <v>0.3595527723933682</v>
       </c>
       <c r="K16">
-        <v>1.474059387408886</v>
+        <v>0.448358081107358</v>
       </c>
       <c r="L16">
-        <v>0.2493754784389495</v>
+        <v>0.124332710150199</v>
       </c>
       <c r="M16">
-        <v>0.2836984624373784</v>
+        <v>0.2075160342998359</v>
       </c>
       <c r="N16">
-        <v>0.9392527859305417</v>
+        <v>2.139248166460266</v>
       </c>
       <c r="O16">
-        <v>1.508891611479498</v>
+        <v>3.011905726531808</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.112148314270399</v>
+        <v>1.011082624799144</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1387632065594175</v>
+        <v>0.2880061600054376</v>
       </c>
       <c r="E17">
-        <v>0.1038658790591391</v>
+        <v>0.2850880073378956</v>
       </c>
       <c r="F17">
-        <v>0.6773400964282885</v>
+        <v>1.375207901370302</v>
       </c>
       <c r="G17">
-        <v>0.4068714597293877</v>
+        <v>0.7027317565523958</v>
       </c>
       <c r="H17">
-        <v>0.3254602094118724</v>
+        <v>0.8048175908978692</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1419096800261173</v>
+        <v>0.3603773770391103</v>
       </c>
       <c r="K17">
-        <v>1.416787391033097</v>
+        <v>0.4304083582676128</v>
       </c>
       <c r="L17">
-        <v>0.2390990058468532</v>
+        <v>0.1214015667624153</v>
       </c>
       <c r="M17">
-        <v>0.2726250607684761</v>
+        <v>0.2046046238084784</v>
       </c>
       <c r="N17">
-        <v>0.9557189029737927</v>
+        <v>2.146480052653683</v>
       </c>
       <c r="O17">
-        <v>1.492601674138285</v>
+        <v>3.015224486582554</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.087883242306248</v>
+        <v>1.005112094189343</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1375223156939853</v>
+        <v>0.2879648147614873</v>
       </c>
       <c r="E18">
-        <v>0.1043043715157452</v>
+        <v>0.2854640471009144</v>
       </c>
       <c r="F18">
-        <v>0.6729102779493346</v>
+        <v>1.37594415245799</v>
       </c>
       <c r="G18">
-        <v>0.4031543743696915</v>
+        <v>0.7029023567939703</v>
       </c>
       <c r="H18">
-        <v>0.3249236739758175</v>
+        <v>0.8056456418759836</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1427921926629923</v>
+        <v>0.3608587009549167</v>
       </c>
       <c r="K18">
-        <v>1.383853641976486</v>
+        <v>0.4200736961733185</v>
       </c>
       <c r="L18">
-        <v>0.233194072927958</v>
+        <v>0.1197174940788983</v>
       </c>
       <c r="M18">
-        <v>0.2662688467210117</v>
+        <v>0.2029359523922132</v>
       </c>
       <c r="N18">
-        <v>0.9653121038131172</v>
+        <v>2.150699061755159</v>
       </c>
       <c r="O18">
-        <v>1.483523068120121</v>
+        <v>3.017266623345137</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.079679035879536</v>
+        <v>1.003096410860365</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1371044027513122</v>
+        <v>0.2879523120849612</v>
       </c>
       <c r="E19">
-        <v>0.1044546022502768</v>
+        <v>0.2855925713340639</v>
       </c>
       <c r="F19">
-        <v>0.6714302371042677</v>
+        <v>1.376203274728155</v>
       </c>
       <c r="G19">
-        <v>0.4019104987175126</v>
+        <v>0.7029662946552264</v>
       </c>
       <c r="H19">
-        <v>0.3247507001060228</v>
+        <v>0.8059307574217485</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1430927835710212</v>
+        <v>0.3610228777908704</v>
       </c>
       <c r="K19">
-        <v>1.372703897828814</v>
+        <v>0.4165727826179193</v>
       </c>
       <c r="L19">
-        <v>0.231195714072598</v>
+        <v>0.1191476169473162</v>
       </c>
       <c r="M19">
-        <v>0.2641188923867972</v>
+        <v>0.2023719863093412</v>
       </c>
       <c r="N19">
-        <v>0.9685810148702902</v>
+        <v>2.152137752952214</v>
       </c>
       <c r="O19">
-        <v>1.480498349168272</v>
+        <v>3.017980955382654</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.116644779984171</v>
+        <v>1.012190403160787</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.138993933376149</v>
+        <v>0.2880145222016992</v>
       </c>
       <c r="E20">
-        <v>0.1037855645393524</v>
+        <v>0.285018982319885</v>
       </c>
       <c r="F20">
-        <v>0.678169444388466</v>
+        <v>1.375076310534354</v>
       </c>
       <c r="G20">
-        <v>0.407566439146791</v>
+        <v>0.7027031152213681</v>
       </c>
       <c r="H20">
-        <v>0.3255636648727034</v>
+        <v>0.8046665936245176</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.141747196944368</v>
+        <v>0.360288868772912</v>
       </c>
       <c r="K20">
-        <v>1.422883248577847</v>
+        <v>0.4323202241617139</v>
       </c>
       <c r="L20">
-        <v>0.2401923393411209</v>
+        <v>0.1217134022163577</v>
       </c>
       <c r="M20">
-        <v>0.2738024906375571</v>
+        <v>0.2049139394989368</v>
       </c>
       <c r="N20">
-        <v>0.9539533506966791</v>
+        <v>2.145704056774086</v>
       </c>
       <c r="O20">
-        <v>1.494305457344836</v>
+        <v>3.014857407886979</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.241689298329476</v>
+        <v>1.043148068934642</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1455013395399689</v>
+        <v>0.2883272956839704</v>
       </c>
       <c r="E21">
-        <v>0.1016618914474829</v>
+        <v>0.2831753961645767</v>
       </c>
       <c r="F21">
-        <v>0.7022364370785255</v>
+        <v>1.371973547631761</v>
       </c>
       <c r="G21">
-        <v>0.4276294285174345</v>
+        <v>0.7022482087866706</v>
       </c>
       <c r="H21">
-        <v>0.3289168013604211</v>
+        <v>0.8007493142024771</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1373512953903284</v>
+        <v>0.3579066646965186</v>
       </c>
       <c r="K21">
-        <v>1.591588406638522</v>
+        <v>0.4851029629782317</v>
       </c>
       <c r="L21">
-        <v>0.2704931411915226</v>
+        <v>0.1303557946666984</v>
       </c>
       <c r="M21">
-        <v>0.3064974657425097</v>
+        <v>0.2135246201706948</v>
       </c>
       <c r="N21">
-        <v>0.9062824169397494</v>
+        <v>2.12479751641478</v>
       </c>
       <c r="O21">
-        <v>1.54423420997415</v>
+        <v>3.005954327369722</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.324094580457569</v>
+        <v>1.063677755786756</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1498770773948053</v>
+        <v>0.2886086649451016</v>
       </c>
       <c r="E22">
-        <v>0.100368256296564</v>
+        <v>0.2820326506731465</v>
       </c>
       <c r="F22">
-        <v>0.7190823332020173</v>
+        <v>1.370454262987316</v>
       </c>
       <c r="G22">
-        <v>0.4415798442039005</v>
+        <v>0.7022705863844152</v>
       </c>
       <c r="H22">
-        <v>0.3315927172364042</v>
+        <v>0.7984347158736682</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1345724555449261</v>
+        <v>0.3564121897590686</v>
       </c>
       <c r="K22">
-        <v>1.701972508173355</v>
+        <v>0.5195016429610462</v>
       </c>
       <c r="L22">
-        <v>0.2903600823952388</v>
+        <v>0.1360195445014085</v>
       </c>
       <c r="M22">
-        <v>0.3279963081479096</v>
+        <v>0.2192035857586276</v>
       </c>
       <c r="N22">
-        <v>0.8762605597293494</v>
+        <v>2.111662602497624</v>
       </c>
       <c r="O22">
-        <v>1.579649466509039</v>
+        <v>3.001320255909548</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.280047542719615</v>
+        <v>1.052693710846398</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1475301412661594</v>
+        <v>0.288451475807733</v>
       </c>
       <c r="E23">
-        <v>0.1010499503553266</v>
+        <v>0.2826368794207479</v>
       </c>
       <c r="F23">
-        <v>0.7099855297835518</v>
+        <v>1.371218666177796</v>
       </c>
       <c r="G23">
-        <v>0.4340543720878429</v>
+        <v>0.7022294117096237</v>
       </c>
       <c r="H23">
-        <v>0.3301188082967172</v>
+        <v>0.7996476220374689</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1360469016167443</v>
+        <v>0.3572041159642874</v>
       </c>
       <c r="K23">
-        <v>1.643044024361558</v>
+        <v>0.5011516085527035</v>
       </c>
       <c r="L23">
-        <v>0.2797503077776611</v>
+        <v>0.1329953281654213</v>
       </c>
       <c r="M23">
-        <v>0.3165092110834777</v>
+        <v>0.2161679664636935</v>
       </c>
       <c r="N23">
-        <v>0.8921778156018796</v>
+        <v>2.118624594509221</v>
       </c>
       <c r="O23">
-        <v>1.560483264341912</v>
+        <v>3.003685261186689</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.114611748456952</v>
+        <v>1.011689479500575</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1388895826937144</v>
+        <v>0.2880107146249955</v>
       </c>
       <c r="E24">
-        <v>0.1038218419713637</v>
+        <v>0.2850501661965676</v>
       </c>
       <c r="F24">
-        <v>0.6777941382698884</v>
+        <v>1.375135623422743</v>
       </c>
       <c r="G24">
-        <v>0.4072519740977611</v>
+        <v>0.702715951804791</v>
       </c>
       <c r="H24">
-        <v>0.3255167340718828</v>
+        <v>0.8047347722305176</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1418206218222307</v>
+        <v>0.3603288607822708</v>
       </c>
       <c r="K24">
-        <v>1.420127334794273</v>
+        <v>0.4314559166578533</v>
       </c>
       <c r="L24">
-        <v>0.2396980335902015</v>
+        <v>0.1215724180308086</v>
       </c>
       <c r="M24">
-        <v>0.2732701435172942</v>
+        <v>0.2047740818612027</v>
       </c>
       <c r="N24">
-        <v>0.9547511630019994</v>
+        <v>2.14605469355768</v>
       </c>
       <c r="O24">
-        <v>1.493534286062527</v>
+        <v>3.01502294631473</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.938758318683</v>
+        <v>0.9687568421142885</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1300685101757182</v>
+        <v>0.2878681113862243</v>
       </c>
       <c r="E25">
-        <v>0.1072055934029352</v>
+        <v>0.287921137374088</v>
       </c>
       <c r="F25">
-        <v>0.6475139253262796</v>
+        <v>1.381550599021544</v>
       </c>
       <c r="G25">
-        <v>0.381633413952045</v>
+        <v>0.7046152596907689</v>
       </c>
       <c r="H25">
-        <v>0.3224986743371048</v>
+        <v>0.8112795689636272</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1484468964795886</v>
+        <v>0.3639684211033429</v>
       </c>
       <c r="K25">
-        <v>1.179935843948982</v>
+        <v>0.3558806256410207</v>
       </c>
       <c r="L25">
-        <v>0.1967116878813329</v>
+        <v>0.1093219670070624</v>
       </c>
       <c r="M25">
-        <v>0.227115277082877</v>
+        <v>0.1927099115408168</v>
       </c>
       <c r="N25">
-        <v>1.026900282187986</v>
+        <v>2.1779145533347</v>
       </c>
       <c r="O25">
-        <v>1.432341708619703</v>
+        <v>3.032349035389544</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_192/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_192/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9382768418033152</v>
+        <v>0.8111401421638504</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2880518284147087</v>
+        <v>0.1239720973117073</v>
       </c>
       <c r="E2">
-        <v>0.2902668810817408</v>
+        <v>0.1100245071541863</v>
       </c>
       <c r="F2">
-        <v>1.388164280684521</v>
+        <v>0.6286707113453787</v>
       </c>
       <c r="G2">
-        <v>0.7071974663573073</v>
+        <v>0.365280890374045</v>
       </c>
       <c r="H2">
-        <v>0.8170119550315604</v>
+        <v>0.3218109568943817</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3668811358229429</v>
+        <v>0.1536632901896913</v>
       </c>
       <c r="K2">
-        <v>0.2999057109038006</v>
+        <v>1.002983879980803</v>
       </c>
       <c r="L2">
-        <v>0.1003660647137181</v>
+        <v>0.1651822103898937</v>
       </c>
       <c r="M2">
-        <v>0.184025117717038</v>
+        <v>0.1934631142017906</v>
       </c>
       <c r="N2">
-        <v>2.203333507021448</v>
+        <v>1.083813963682118</v>
       </c>
       <c r="O2">
-        <v>3.049501000674852</v>
+        <v>1.395793141570394</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9183344216710339</v>
+        <v>0.7256427807883767</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2883577262634134</v>
+        <v>0.1200747010294805</v>
       </c>
       <c r="E3">
-        <v>0.2920020035920867</v>
+        <v>0.1121338605202657</v>
       </c>
       <c r="F3">
-        <v>1.393829304094737</v>
+        <v>0.6178817297609385</v>
       </c>
       <c r="G3">
-        <v>0.7096868015382043</v>
+        <v>0.3556152888013742</v>
       </c>
       <c r="H3">
-        <v>0.8214687406957211</v>
+        <v>0.3222374502446641</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3690011855887791</v>
+        <v>0.1574065608235213</v>
       </c>
       <c r="K3">
-        <v>0.2617728835010666</v>
+        <v>0.8828529695304042</v>
       </c>
       <c r="L3">
-        <v>0.09433819518725528</v>
+        <v>0.1438604408638611</v>
       </c>
       <c r="M3">
-        <v>0.1782648911901781</v>
+        <v>0.1708240172395605</v>
       </c>
       <c r="N3">
-        <v>2.221786505628002</v>
+        <v>1.12465021678713</v>
       </c>
       <c r="O3">
-        <v>3.06387270415901</v>
+        <v>1.37587858416218</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9064452437343391</v>
+        <v>0.6735837607291444</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2886354763731305</v>
+        <v>0.1177927579439952</v>
       </c>
       <c r="E4">
-        <v>0.2931393397314928</v>
+        <v>0.1135254515523654</v>
       </c>
       <c r="F4">
-        <v>1.397892419163554</v>
+        <v>0.6121810078772896</v>
       </c>
       <c r="G4">
-        <v>0.7115803254525304</v>
+        <v>0.350332979580628</v>
       </c>
       <c r="H4">
-        <v>0.8244880251704245</v>
+        <v>0.3229195107560372</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3703752095841009</v>
+        <v>0.1598067736708002</v>
       </c>
       <c r="K4">
-        <v>0.2382644365759035</v>
+        <v>0.8089456015284782</v>
       </c>
       <c r="L4">
-        <v>0.09065825284367435</v>
+        <v>0.1307826866919299</v>
       </c>
       <c r="M4">
-        <v>0.1747907978346994</v>
+        <v>0.1569941010377818</v>
       </c>
       <c r="N4">
-        <v>2.233722632803273</v>
+        <v>1.150809897103761</v>
       </c>
       <c r="O4">
-        <v>3.074054522412411</v>
+        <v>1.365905188943259</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9016903370035436</v>
+        <v>0.6524721469935457</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2887713496621984</v>
+        <v>0.1168901676989549</v>
       </c>
       <c r="E5">
-        <v>0.293620944593151</v>
+        <v>0.1141165398267665</v>
       </c>
       <c r="F5">
-        <v>1.399695435710356</v>
+        <v>0.6100826686496958</v>
       </c>
       <c r="G5">
-        <v>0.7124438247671989</v>
+        <v>0.3483379155306352</v>
       </c>
       <c r="H5">
-        <v>0.8257896299298366</v>
+        <v>0.3233002804840126</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3709533510075402</v>
+        <v>0.1608103601003377</v>
       </c>
       <c r="K5">
-        <v>0.2286613611972967</v>
+        <v>0.7787853517104395</v>
       </c>
       <c r="L5">
-        <v>0.08916410700009436</v>
+        <v>0.1254557484893724</v>
       </c>
       <c r="M5">
-        <v>0.1733909976274788</v>
+        <v>0.1513744648356479</v>
       </c>
       <c r="N5">
-        <v>2.238739178633702</v>
+        <v>1.161738685816317</v>
       </c>
       <c r="O5">
-        <v>3.078545441582889</v>
+        <v>1.362387990016828</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9009062442939069</v>
+        <v>0.6489725949297167</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2887952838091081</v>
+        <v>0.1167419259441189</v>
       </c>
       <c r="E6">
-        <v>0.293702010826749</v>
+        <v>0.1142161322709301</v>
       </c>
       <c r="F6">
-        <v>1.400003726079589</v>
+        <v>0.6097476007859228</v>
       </c>
       <c r="G6">
-        <v>0.7125927592778893</v>
+        <v>0.3480159644435901</v>
       </c>
       <c r="H6">
-        <v>0.8260100652512463</v>
+        <v>0.3233696366524725</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.371050452117262</v>
+        <v>0.1609785401995678</v>
       </c>
       <c r="K6">
-        <v>0.2270653956146305</v>
+        <v>0.7737745482649245</v>
       </c>
       <c r="L6">
-        <v>0.08891633888100614</v>
+        <v>0.124571324380419</v>
       </c>
       <c r="M6">
-        <v>0.1731595279408182</v>
+        <v>0.1504422602229205</v>
       </c>
       <c r="N6">
-        <v>2.239581384924263</v>
+        <v>1.163569489185567</v>
       </c>
       <c r="O6">
-        <v>3.079311807129088</v>
+        <v>1.361836437997837</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9063807520431908</v>
+        <v>0.6732986346071925</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2886372168452667</v>
+        <v>0.1177804754673346</v>
       </c>
       <c r="E7">
-        <v>0.2931457613634532</v>
+        <v>0.1135333263056779</v>
       </c>
       <c r="F7">
-        <v>1.397916138716198</v>
+        <v>0.6121518086687701</v>
       </c>
       <c r="G7">
-        <v>0.7115915988162769</v>
+        <v>0.3503054440979838</v>
       </c>
       <c r="H7">
-        <v>0.8245052905478616</v>
+        <v>0.3229242332779663</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.370382932802807</v>
+        <v>0.1598202053824935</v>
       </c>
       <c r="K7">
-        <v>0.2381350192138001</v>
+        <v>0.8085390286339162</v>
       </c>
       <c r="L7">
-        <v>0.09063807998688844</v>
+        <v>0.1307108376787838</v>
       </c>
       <c r="M7">
-        <v>0.1747718549737591</v>
+        <v>0.15691824923368</v>
       </c>
       <c r="N7">
-        <v>2.233789670165033</v>
+        <v>1.150956205324009</v>
       </c>
       <c r="O7">
-        <v>3.074113704295669</v>
+        <v>1.365855565397524</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9313272677287898</v>
+        <v>0.7815657046467379</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2881386820047069</v>
+        <v>0.1226048456489153</v>
       </c>
       <c r="E8">
-        <v>0.2908502364572376</v>
+        <v>0.1107316454670082</v>
       </c>
       <c r="F8">
-        <v>1.38999634255449</v>
+        <v>0.6247543125215245</v>
       </c>
       <c r="G8">
-        <v>0.7079800645095204</v>
+        <v>0.361808765315331</v>
       </c>
       <c r="H8">
-        <v>0.8184900249849818</v>
+        <v>0.3218690566695912</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3675971426002071</v>
+        <v>0.1549327590363445</v>
       </c>
       <c r="K8">
-        <v>0.2867775414305527</v>
+        <v>0.9615896702398743</v>
       </c>
       <c r="L8">
-        <v>0.09828333323706318</v>
+        <v>0.157826866751968</v>
       </c>
       <c r="M8">
-        <v>0.1820260656634751</v>
+        <v>0.1856415224475967</v>
       </c>
       <c r="N8">
-        <v>2.209570415061679</v>
+        <v>1.097666081696339</v>
       </c>
       <c r="O8">
-        <v>3.054174834522982</v>
+        <v>1.38844655989493</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9830441677540875</v>
+        <v>0.9976818562550704</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2878714673695129</v>
+        <v>0.1329760121964796</v>
       </c>
       <c r="E9">
-        <v>0.286918128859412</v>
+        <v>0.1060141706027427</v>
       </c>
       <c r="F9">
-        <v>1.379096532542206</v>
+        <v>0.6571538140234523</v>
       </c>
       <c r="G9">
-        <v>0.7037917077456655</v>
+        <v>0.3898524357349942</v>
       </c>
       <c r="H9">
-        <v>0.8089333143417008</v>
+        <v>0.3232679871573367</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3627063503878132</v>
+        <v>0.1461620617375576</v>
       </c>
       <c r="K9">
-        <v>0.3813903323691079</v>
+        <v>1.260839726021686</v>
       </c>
       <c r="L9">
-        <v>0.1134388159173767</v>
+        <v>0.2111687490106391</v>
       </c>
       <c r="M9">
-        <v>0.1967432494923216</v>
+        <v>0.2426056292757757</v>
       </c>
       <c r="N9">
-        <v>2.166878368905767</v>
+        <v>1.001994186786424</v>
       </c>
       <c r="O9">
-        <v>3.025830818870418</v>
+        <v>1.451570365438869</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.022717661979357</v>
+        <v>1.159292473188913</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2881042701605523</v>
+        <v>0.1411940487468755</v>
       </c>
       <c r="E10">
-        <v>0.2843741329573</v>
+        <v>0.1030379445443828</v>
       </c>
       <c r="F10">
-        <v>1.373900453504838</v>
+        <v>0.6861637967985388</v>
       </c>
       <c r="G10">
-        <v>0.7024758014361083</v>
+        <v>0.414251891786833</v>
       </c>
       <c r="H10">
-        <v>0.8032709634490658</v>
+        <v>0.3266058388584412</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3594596316056973</v>
+        <v>0.1402218932079595</v>
       </c>
       <c r="K10">
-        <v>0.4504048362346964</v>
+        <v>1.480595739548221</v>
       </c>
       <c r="L10">
-        <v>0.1246674204987386</v>
+        <v>0.2505489231525502</v>
       </c>
       <c r="M10">
-        <v>0.2078490415045238</v>
+        <v>0.2849638166190118</v>
       </c>
       <c r="N10">
-        <v>2.138431008038065</v>
+        <v>0.9373906107752532</v>
       </c>
       <c r="O10">
-        <v>3.011545084509663</v>
+        <v>1.510790468670962</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.041124671189124</v>
+        <v>1.233547971871786</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2883025353600743</v>
+        <v>0.1450726058317073</v>
       </c>
       <c r="E11">
-        <v>0.2832912326013588</v>
+        <v>0.1017940425247197</v>
       </c>
       <c r="F11">
-        <v>1.372144940777034</v>
+        <v>0.7006130143420464</v>
       </c>
       <c r="G11">
-        <v>0.702259046950374</v>
+        <v>0.4262815504105077</v>
       </c>
       <c r="H11">
-        <v>0.8009888254154163</v>
+        <v>0.3286717350142254</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3580573862560721</v>
+        <v>0.1376306761824102</v>
       </c>
       <c r="K11">
-        <v>0.4816883458271377</v>
+        <v>1.580650169464178</v>
       </c>
       <c r="L11">
-        <v>0.1297948642102398</v>
+        <v>0.2685261740062401</v>
       </c>
       <c r="M11">
-        <v>0.2129636476406134</v>
+        <v>0.3043715087710481</v>
       </c>
       <c r="N11">
-        <v>2.126121408746638</v>
+        <v>0.9093060562343211</v>
       </c>
       <c r="O11">
-        <v>3.006462156155266</v>
+        <v>1.540839745712333</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.048146023231595</v>
+        <v>1.261782967454394</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2883908223183838</v>
+        <v>0.1465623220815075</v>
       </c>
       <c r="E12">
-        <v>0.2828918259045707</v>
+        <v>0.1013391551552267</v>
       </c>
       <c r="F12">
-        <v>1.371567430200194</v>
+        <v>0.7062752915376436</v>
       </c>
       <c r="G12">
-        <v>0.7022318176951927</v>
+        <v>0.4309799057225803</v>
       </c>
       <c r="H12">
-        <v>0.8001667675072071</v>
+        <v>0.3295368074566341</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3575370998461573</v>
+        <v>0.1366655739446729</v>
       </c>
       <c r="K12">
-        <v>0.4935179932744234</v>
+        <v>1.61855940532115</v>
       </c>
       <c r="L12">
-        <v>0.1317391772657714</v>
+        <v>0.2753445326769679</v>
       </c>
       <c r="M12">
-        <v>0.2149092671601309</v>
+        <v>0.3117430187406924</v>
       </c>
       <c r="N12">
-        <v>2.121550743626965</v>
+        <v>0.8988650146211725</v>
       </c>
       <c r="O12">
-        <v>3.004740621529322</v>
+        <v>1.552693940354288</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.046631590875847</v>
+        <v>1.255696730293323</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2883712218699941</v>
+        <v>0.1462405376223614</v>
       </c>
       <c r="E13">
-        <v>0.2829773714839394</v>
+        <v>0.1014363994815906</v>
       </c>
       <c r="F13">
-        <v>1.371687929467754</v>
+        <v>0.7050471638781133</v>
       </c>
       <c r="G13">
-        <v>0.7022352434489392</v>
+        <v>0.429961519035146</v>
       </c>
       <c r="H13">
-        <v>0.8003419397799405</v>
+        <v>0.3293467509811592</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3576486768048701</v>
+        <v>0.1368727054953647</v>
       </c>
       <c r="K13">
-        <v>0.4909710226470736</v>
+        <v>1.61039390843132</v>
       </c>
       <c r="L13">
-        <v>0.1313203185552396</v>
+        <v>0.273875570048304</v>
       </c>
       <c r="M13">
-        <v>0.2144898530842312</v>
+        <v>0.310154405178217</v>
       </c>
       <c r="N13">
-        <v>2.122531084579858</v>
+        <v>0.9011049462728202</v>
       </c>
       <c r="O13">
-        <v>3.005102349862</v>
+        <v>1.550119330042662</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.041701303341654</v>
+        <v>1.235868497199363</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2883095344882278</v>
+        <v>0.1451947400311866</v>
       </c>
       <c r="E14">
-        <v>0.2832581596234345</v>
+        <v>0.1017562930057689</v>
       </c>
       <c r="F14">
-        <v>1.372095680856361</v>
+        <v>0.7010749692486939</v>
       </c>
       <c r="G14">
-        <v>0.702255707832137</v>
+        <v>0.426665166592116</v>
       </c>
       <c r="H14">
-        <v>0.800920350243814</v>
+        <v>0.3287412224136972</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3580143674299774</v>
+        <v>0.1375509522369511</v>
       </c>
       <c r="K14">
-        <v>0.4826619175224209</v>
+        <v>1.583768518235331</v>
       </c>
       <c r="L14">
-        <v>0.1299547714901763</v>
+        <v>0.2690868985833674</v>
       </c>
       <c r="M14">
-        <v>0.2131235389073964</v>
+        <v>0.3049775080372115</v>
       </c>
       <c r="N14">
-        <v>2.125743559685816</v>
+        <v>0.908443139759239</v>
       </c>
       <c r="O14">
-        <v>3.006316452663128</v>
+        <v>1.541805307792544</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.038687984356045</v>
+        <v>1.223738549567742</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2882734671127736</v>
+        <v>0.144556918103099</v>
       </c>
       <c r="E15">
-        <v>0.283431538337501</v>
+        <v>0.1019543505639682</v>
       </c>
       <c r="F15">
-        <v>1.372356798887445</v>
+        <v>0.6986670404672495</v>
       </c>
       <c r="G15">
-        <v>0.7022753842896208</v>
+        <v>0.4246649590869396</v>
       </c>
       <c r="H15">
-        <v>0.8012801281955717</v>
+        <v>0.3283812205435908</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.358239757857381</v>
+        <v>0.1379685045618984</v>
       </c>
       <c r="K15">
-        <v>0.4775701500542482</v>
+        <v>1.567462664883323</v>
       </c>
       <c r="L15">
-        <v>0.1291186768622339</v>
+        <v>0.2661551533454514</v>
       </c>
       <c r="M15">
-        <v>0.2122877770347742</v>
+        <v>0.3018094754370537</v>
       </c>
       <c r="N15">
-        <v>2.127723105226856</v>
+        <v>0.9129634534731359</v>
       </c>
       <c r="O15">
-        <v>3.007086586652576</v>
+        <v>1.536775471224843</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.021521895431192</v>
+        <v>1.15445538756785</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2880931653553134</v>
+        <v>0.1409434665724731</v>
       </c>
       <c r="E16">
-        <v>0.2844463970239666</v>
+        <v>0.1031214781043026</v>
       </c>
       <c r="F16">
-        <v>1.374027402390723</v>
+        <v>0.685245599057275</v>
       </c>
       <c r="G16">
-        <v>0.7024976457155674</v>
+        <v>0.4134852199090631</v>
       </c>
       <c r="H16">
-        <v>0.8034260083151139</v>
+        <v>0.3264821841124785</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3595527723933682</v>
+        <v>0.1403934835858642</v>
       </c>
       <c r="K16">
-        <v>0.448358081107358</v>
+        <v>1.474059387408829</v>
       </c>
       <c r="L16">
-        <v>0.124332710150199</v>
+        <v>0.2493754784388926</v>
       </c>
       <c r="M16">
-        <v>0.2075160342998359</v>
+        <v>0.2836984624373784</v>
       </c>
       <c r="N16">
-        <v>2.139248166460266</v>
+        <v>0.9392527859304884</v>
       </c>
       <c r="O16">
-        <v>3.011905726531808</v>
+        <v>1.50889161147947</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.011082624799144</v>
+        <v>1.112148314270428</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2880061600054376</v>
+        <v>0.1387632065594673</v>
       </c>
       <c r="E17">
-        <v>0.2850880073378956</v>
+        <v>0.1038658790591285</v>
       </c>
       <c r="F17">
-        <v>1.375207901370302</v>
+        <v>0.6773400964282885</v>
       </c>
       <c r="G17">
-        <v>0.7027317565523958</v>
+        <v>0.4068714597293166</v>
       </c>
       <c r="H17">
-        <v>0.8048175908978692</v>
+        <v>0.3254602094120003</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3603773770391103</v>
+        <v>0.141909680026103</v>
       </c>
       <c r="K17">
-        <v>0.4304083582676128</v>
+        <v>1.416787391033068</v>
       </c>
       <c r="L17">
-        <v>0.1214015667624153</v>
+        <v>0.239099005846839</v>
       </c>
       <c r="M17">
-        <v>0.2046046238084784</v>
+        <v>0.2726250607684797</v>
       </c>
       <c r="N17">
-        <v>2.146480052653683</v>
+        <v>0.9557189029737803</v>
       </c>
       <c r="O17">
-        <v>3.015224486582554</v>
+        <v>1.492601674138172</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.005112094189343</v>
+        <v>1.087883242306248</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2879648147614873</v>
+        <v>0.1375223156941274</v>
       </c>
       <c r="E18">
-        <v>0.2854640471009144</v>
+        <v>0.104304371515731</v>
       </c>
       <c r="F18">
-        <v>1.37594415245799</v>
+        <v>0.6729102779493346</v>
       </c>
       <c r="G18">
-        <v>0.7029023567939703</v>
+        <v>0.4031543743697199</v>
       </c>
       <c r="H18">
-        <v>0.8056456418759836</v>
+        <v>0.3249236739757038</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3608587009549167</v>
+        <v>0.1427921926629403</v>
       </c>
       <c r="K18">
-        <v>0.4200736961733185</v>
+        <v>1.383853641976572</v>
       </c>
       <c r="L18">
-        <v>0.1197174940788983</v>
+        <v>0.2331940729279722</v>
       </c>
       <c r="M18">
-        <v>0.2029359523922132</v>
+        <v>0.2662688467210295</v>
       </c>
       <c r="N18">
-        <v>2.150699061755159</v>
+        <v>0.9653121038131669</v>
       </c>
       <c r="O18">
-        <v>3.017266623345137</v>
+        <v>1.483523068120093</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.003096410860365</v>
+        <v>1.079679035879423</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2879523120849612</v>
+        <v>0.1371044027514898</v>
       </c>
       <c r="E19">
-        <v>0.2855925713340639</v>
+        <v>0.1044546022502608</v>
       </c>
       <c r="F19">
-        <v>1.376203274728155</v>
+        <v>0.6714302371042606</v>
       </c>
       <c r="G19">
-        <v>0.7029662946552264</v>
+        <v>0.4019104987174842</v>
       </c>
       <c r="H19">
-        <v>0.8059307574217485</v>
+        <v>0.3247507001060228</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3610228777908704</v>
+        <v>0.1430927835710492</v>
       </c>
       <c r="K19">
-        <v>0.4165727826179193</v>
+        <v>1.372703897828842</v>
       </c>
       <c r="L19">
-        <v>0.1191476169473162</v>
+        <v>0.2311957140725838</v>
       </c>
       <c r="M19">
-        <v>0.2023719863093412</v>
+        <v>0.2641188923868079</v>
       </c>
       <c r="N19">
-        <v>2.152137752952214</v>
+        <v>0.9685810148702814</v>
       </c>
       <c r="O19">
-        <v>3.017980955382654</v>
+        <v>1.480498349168244</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.012190403160787</v>
+        <v>1.116644779984313</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2880145222016992</v>
+        <v>0.1389939333760353</v>
       </c>
       <c r="E20">
-        <v>0.285018982319885</v>
+        <v>0.1037855645393826</v>
       </c>
       <c r="F20">
-        <v>1.375076310534354</v>
+        <v>0.6781694443884518</v>
       </c>
       <c r="G20">
-        <v>0.7027031152213681</v>
+        <v>0.407566439146791</v>
       </c>
       <c r="H20">
-        <v>0.8046665936245176</v>
+        <v>0.3255636648725897</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.360288868772912</v>
+        <v>0.141747196944404</v>
       </c>
       <c r="K20">
-        <v>0.4323202241617139</v>
+        <v>1.422883248577818</v>
       </c>
       <c r="L20">
-        <v>0.1217134022163577</v>
+        <v>0.2401923393411778</v>
       </c>
       <c r="M20">
-        <v>0.2049139394989368</v>
+        <v>0.2738024906375713</v>
       </c>
       <c r="N20">
-        <v>2.145704056774086</v>
+        <v>0.9539533506966293</v>
       </c>
       <c r="O20">
-        <v>3.014857407886979</v>
+        <v>1.494305457344751</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.043148068934642</v>
+        <v>1.241689298329391</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2883272956839704</v>
+        <v>0.145501339539976</v>
       </c>
       <c r="E21">
-        <v>0.2831753961645767</v>
+        <v>0.1016618914474847</v>
       </c>
       <c r="F21">
-        <v>1.371973547631761</v>
+        <v>0.7022364370785183</v>
       </c>
       <c r="G21">
-        <v>0.7022482087866706</v>
+        <v>0.427629428517406</v>
       </c>
       <c r="H21">
-        <v>0.8007493142024771</v>
+        <v>0.3289168013602932</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3579066646965186</v>
+        <v>0.137351295390328</v>
       </c>
       <c r="K21">
-        <v>0.4851029629782317</v>
+        <v>1.591588406638493</v>
       </c>
       <c r="L21">
-        <v>0.1303557946666984</v>
+        <v>0.2704931411914657</v>
       </c>
       <c r="M21">
-        <v>0.2135246201706948</v>
+        <v>0.3064974657425026</v>
       </c>
       <c r="N21">
-        <v>2.12479751641478</v>
+        <v>0.9062824169398063</v>
       </c>
       <c r="O21">
-        <v>3.005954327369722</v>
+        <v>1.54423420997415</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.063677755786756</v>
+        <v>1.324094580457455</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2886086649451016</v>
+        <v>0.149877077394919</v>
       </c>
       <c r="E22">
-        <v>0.2820326506731465</v>
+        <v>0.1003682562965746</v>
       </c>
       <c r="F22">
-        <v>1.370454262987316</v>
+        <v>0.7190823332019889</v>
       </c>
       <c r="G22">
-        <v>0.7022705863844152</v>
+        <v>0.4415798442038437</v>
       </c>
       <c r="H22">
-        <v>0.7984347158736682</v>
+        <v>0.3315927172365178</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3564121897590686</v>
+        <v>0.1345724555447991</v>
       </c>
       <c r="K22">
-        <v>0.5195016429610462</v>
+        <v>1.701972508173469</v>
       </c>
       <c r="L22">
-        <v>0.1360195445014085</v>
+        <v>0.2903600823952104</v>
       </c>
       <c r="M22">
-        <v>0.2192035857586276</v>
+        <v>0.3279963081479167</v>
       </c>
       <c r="N22">
-        <v>2.111662602497624</v>
+        <v>0.8762605597294026</v>
       </c>
       <c r="O22">
-        <v>3.001320255909548</v>
+        <v>1.579649466509039</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.052693710846398</v>
+        <v>1.280047542719728</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.288451475807733</v>
+        <v>0.1475301412663725</v>
       </c>
       <c r="E23">
-        <v>0.2826368794207479</v>
+        <v>0.1010499503553319</v>
       </c>
       <c r="F23">
-        <v>1.371218666177796</v>
+        <v>0.7099855297835518</v>
       </c>
       <c r="G23">
-        <v>0.7022294117096237</v>
+        <v>0.4340543720878998</v>
       </c>
       <c r="H23">
-        <v>0.7996476220374689</v>
+        <v>0.3301188082966036</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3572041159642874</v>
+        <v>0.1360469016166719</v>
       </c>
       <c r="K23">
-        <v>0.5011516085527035</v>
+        <v>1.643044024361586</v>
       </c>
       <c r="L23">
-        <v>0.1329953281654213</v>
+        <v>0.2797503077777179</v>
       </c>
       <c r="M23">
-        <v>0.2161679664636935</v>
+        <v>0.3165092110834919</v>
       </c>
       <c r="N23">
-        <v>2.118624594509221</v>
+        <v>0.8921778156018867</v>
       </c>
       <c r="O23">
-        <v>3.003685261186689</v>
+        <v>1.560483264341769</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.011689479500575</v>
+        <v>1.114611748457037</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2880107146249955</v>
+        <v>0.1388895826937286</v>
       </c>
       <c r="E24">
-        <v>0.2850501661965676</v>
+        <v>0.103821841971353</v>
       </c>
       <c r="F24">
-        <v>1.375135623422743</v>
+        <v>0.6777941382698742</v>
       </c>
       <c r="G24">
-        <v>0.702715951804791</v>
+        <v>0.4072519740977043</v>
       </c>
       <c r="H24">
-        <v>0.8047347722305176</v>
+        <v>0.3255167340719964</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3603288607822708</v>
+        <v>0.1418206218221645</v>
       </c>
       <c r="K24">
-        <v>0.4314559166578533</v>
+        <v>1.420127334794245</v>
       </c>
       <c r="L24">
-        <v>0.1215724180308086</v>
+        <v>0.2396980335902157</v>
       </c>
       <c r="M24">
-        <v>0.2047740818612027</v>
+        <v>0.2732701435173155</v>
       </c>
       <c r="N24">
-        <v>2.14605469355768</v>
+        <v>0.9547511630020029</v>
       </c>
       <c r="O24">
-        <v>3.01502294631473</v>
+        <v>1.493534286062527</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9687568421142885</v>
+        <v>0.938758318683</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2878681113862243</v>
+        <v>0.1300685101756045</v>
       </c>
       <c r="E25">
-        <v>0.287921137374088</v>
+        <v>0.1072055934029219</v>
       </c>
       <c r="F25">
-        <v>1.381550599021544</v>
+        <v>0.6475139253262867</v>
       </c>
       <c r="G25">
-        <v>0.7046152596907689</v>
+        <v>0.3816334139520308</v>
       </c>
       <c r="H25">
-        <v>0.8112795689636272</v>
+        <v>0.3224986743372185</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3639684211033429</v>
+        <v>0.1484468964795949</v>
       </c>
       <c r="K25">
-        <v>0.3558806256410207</v>
+        <v>1.179935843949039</v>
       </c>
       <c r="L25">
-        <v>0.1093219670070624</v>
+        <v>0.196711687881205</v>
       </c>
       <c r="M25">
-        <v>0.1927099115408168</v>
+        <v>0.2271152770828735</v>
       </c>
       <c r="N25">
-        <v>2.1779145533347</v>
+        <v>1.026900282187983</v>
       </c>
       <c r="O25">
-        <v>3.032349035389544</v>
+        <v>1.432341708619688</v>
       </c>
     </row>
   </sheetData>
